--- a/metrics_of_tests/metrics.xlsx
+++ b/metrics_of_tests/metrics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\diplom\Graduation-project\metrics_of_tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75AF1D90-62C3-4D03-A090-272EE19F6919}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A748FA2-697F-40C0-8C64-943ECBDA595C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Speed_test" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="27">
   <si>
     <t>Детектор</t>
   </si>
@@ -83,6 +83,30 @@
   </si>
   <si>
     <t>33.78 секунд</t>
+  </si>
+  <si>
+    <t>Нагрузка</t>
+  </si>
+  <si>
+    <t>CPU</t>
+  </si>
+  <si>
+    <t>Фильтр Blur(Мыло)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Фильтр Noise(Шумы)</t>
+  </si>
+  <si>
+    <t>Фильтр Rotate(Поворот)</t>
+  </si>
+  <si>
+    <t>Фильтр Контрастность+засветы</t>
   </si>
 </sst>
 </file>
@@ -98,12 +122,36 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -118,8 +166,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -400,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -506,6 +566,45 @@
         <v>7245</v>
       </c>
     </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -514,14 +613,296 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35D1ED4E-0317-4471-BF8A-FC0DB2AD54D7}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AP3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="AI10" sqref="AI10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="12" max="12" width="20.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="L1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="W1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+      <c r="AA1" s="3"/>
+      <c r="AB1" s="3"/>
+      <c r="AC1" s="3"/>
+      <c r="AD1" s="3"/>
+      <c r="AE1" s="3"/>
+      <c r="AF1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="AI1" s="4"/>
+      <c r="AJ1" s="4"/>
+      <c r="AK1" s="4"/>
+      <c r="AL1" s="4"/>
+      <c r="AM1" s="4"/>
+      <c r="AN1" s="4"/>
+      <c r="AO1" s="4"/>
+      <c r="AP1" s="4"/>
+    </row>
+    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O2" t="s">
+        <v>5</v>
+      </c>
+      <c r="P2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>7</v>
+      </c>
+      <c r="R2" t="s">
+        <v>8</v>
+      </c>
+      <c r="S2" t="s">
+        <v>9</v>
+      </c>
+      <c r="T2" t="s">
+        <v>10</v>
+      </c>
+      <c r="W2" t="s">
+        <v>0</v>
+      </c>
+      <c r="X2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>13619</v>
+      </c>
+      <c r="C3">
+        <v>3571</v>
+      </c>
+      <c r="D3">
+        <v>5483</v>
+      </c>
+      <c r="E3">
+        <v>11068</v>
+      </c>
+      <c r="F3">
+        <v>13218</v>
+      </c>
+      <c r="G3">
+        <v>4856</v>
+      </c>
+      <c r="H3">
+        <v>8179</v>
+      </c>
+      <c r="I3">
+        <v>5751</v>
+      </c>
+      <c r="L3" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3">
+        <v>2954</v>
+      </c>
+      <c r="N3">
+        <v>960</v>
+      </c>
+      <c r="O3">
+        <v>2597</v>
+      </c>
+      <c r="P3">
+        <v>5696</v>
+      </c>
+      <c r="Q3">
+        <v>4079</v>
+      </c>
+      <c r="R3">
+        <v>414</v>
+      </c>
+      <c r="S3">
+        <v>3680</v>
+      </c>
+      <c r="T3">
+        <v>1609</v>
+      </c>
+      <c r="W3" t="s">
+        <v>2</v>
+      </c>
+      <c r="X3">
+        <v>9809</v>
+      </c>
+      <c r="Y3">
+        <v>1300</v>
+      </c>
+      <c r="Z3">
+        <v>2491</v>
+      </c>
+      <c r="AA3">
+        <v>7781</v>
+      </c>
+      <c r="AB3">
+        <v>10254</v>
+      </c>
+      <c r="AC3">
+        <v>3555</v>
+      </c>
+      <c r="AD3">
+        <v>3501</v>
+      </c>
+      <c r="AE3">
+        <v>2796</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI3">
+        <v>12365</v>
+      </c>
+      <c r="AJ3">
+        <v>3717</v>
+      </c>
+      <c r="AK3">
+        <v>4295</v>
+      </c>
+      <c r="AL3">
+        <v>11145</v>
+      </c>
+      <c r="AM3">
+        <v>12248</v>
+      </c>
+      <c r="AN3">
+        <v>2453</v>
+      </c>
+      <c r="AO3">
+        <v>6074</v>
+      </c>
+      <c r="AP3">
+        <v>4531</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="L1:T1"/>
+    <mergeCell ref="W1:AE1"/>
+    <mergeCell ref="AH1:AP1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/metrics_of_tests/metrics.xlsx
+++ b/metrics_of_tests/metrics.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\diplom\Graduation-project\metrics_of_tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A748FA2-697F-40C0-8C64-943ECBDA595C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{223D1C51-FBC8-408C-B1D8-5BA1CA77D930}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Speed_test" sheetId="1" r:id="rId1"/>
     <sheet name="Filters_test" sheetId="2" r:id="rId2"/>
+    <sheet name="Нагрузка" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="39">
   <si>
     <t>Детектор</t>
   </si>
@@ -85,12 +86,6 @@
     <t>33.78 секунд</t>
   </si>
   <si>
-    <t>Нагрузка</t>
-  </si>
-  <si>
-    <t>CPU</t>
-  </si>
-  <si>
     <t>Фильтр Blur(Мыло)</t>
   </si>
   <si>
@@ -107,14 +102,64 @@
   </si>
   <si>
     <t>Фильтр Контрастность+засветы</t>
+  </si>
+  <si>
+    <t>Gpu</t>
+  </si>
+  <si>
+    <t>Cpu</t>
+  </si>
+  <si>
+    <t>30–60%</t>
+  </si>
+  <si>
+    <t>35–55%</t>
+  </si>
+  <si>
+    <t>50–80%</t>
+  </si>
+  <si>
+    <t>60–90%</t>
+  </si>
+  <si>
+    <t>5–15%</t>
+  </si>
+  <si>
+    <t>1–5%</t>
+  </si>
+  <si>
+    <t>25–50%</t>
+  </si>
+  <si>
+    <t>20–50%</t>
+  </si>
+  <si>
+    <t>10–25%</t>
+  </si>
+  <si>
+    <t>40–60%</t>
+  </si>
+  <si>
+    <t>cpu</t>
+  </si>
+  <si>
+    <t>25–45%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -166,7 +211,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -179,6 +224,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -460,10 +511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection sqref="A1:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -566,45 +617,6 @@
         <v>7245</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>20</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -615,8 +627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35D1ED4E-0317-4471-BF8A-FC0DB2AD54D7}">
   <dimension ref="A1:AP3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="AI10" sqref="AI10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -626,7 +638,7 @@
   <sheetData>
     <row r="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -637,7 +649,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="L1" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
@@ -648,7 +660,7 @@
       <c r="S1" s="2"/>
       <c r="T1" s="2"/>
       <c r="W1" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="X1" s="3"/>
       <c r="Y1" s="3"/>
@@ -659,13 +671,13 @@
       <c r="AD1" s="3"/>
       <c r="AE1" s="3"/>
       <c r="AF1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AG1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AH1" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AI1" s="4"/>
       <c r="AJ1" s="4"/>
@@ -905,4 +917,124 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9F3EFF3-1AEE-4B9B-8567-F726B8F4D7B7}">
+  <dimension ref="A1:I12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R9" sqref="R9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D6" s="5"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="5"/>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E12" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/metrics_of_tests/metrics.xlsx
+++ b/metrics_of_tests/metrics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\diplom\Graduation-project\metrics_of_tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{223D1C51-FBC8-408C-B1D8-5BA1CA77D930}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0127159F-ECB2-4408-998E-DBA563F829A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,12 +27,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="18">
   <si>
     <t>Детектор</t>
-  </si>
-  <si>
-    <t>Время обработки 5000 кадров</t>
   </si>
   <si>
     <t>Кол-во разпознанных лиц</t>
@@ -62,30 +59,6 @@
     <t>ssd</t>
   </si>
   <si>
-    <t>83.58 секунд</t>
-  </si>
-  <si>
-    <t>354.61 секунд</t>
-  </si>
-  <si>
-    <t>389.26 секунд</t>
-  </si>
-  <si>
-    <t>369.92 секунд</t>
-  </si>
-  <si>
-    <t>636.92 секунд</t>
-  </si>
-  <si>
-    <t>1443.09 секунд</t>
-  </si>
-  <si>
-    <t>193.61 секунд</t>
-  </si>
-  <si>
-    <t>33.78 секунд</t>
-  </si>
-  <si>
     <t>Фильтр Blur(Мыло)</t>
   </si>
   <si>
@@ -104,46 +77,10 @@
     <t>Фильтр Контрастность+засветы</t>
   </si>
   <si>
-    <t>Gpu</t>
-  </si>
-  <si>
     <t>Cpu</t>
   </si>
   <si>
-    <t>30–60%</t>
-  </si>
-  <si>
-    <t>35–55%</t>
-  </si>
-  <si>
-    <t>50–80%</t>
-  </si>
-  <si>
-    <t>60–90%</t>
-  </si>
-  <si>
-    <t>5–15%</t>
-  </si>
-  <si>
-    <t>1–5%</t>
-  </si>
-  <si>
-    <t>25–50%</t>
-  </si>
-  <si>
-    <t>20–50%</t>
-  </si>
-  <si>
-    <t>10–25%</t>
-  </si>
-  <si>
-    <t>40–60%</t>
-  </si>
-  <si>
-    <t>cpu</t>
-  </si>
-  <si>
-    <t>25–45%</t>
+    <t>Время обработки 5000 кадров (sec)</t>
   </si>
 </sst>
 </file>
@@ -211,8 +148,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -225,12 +168,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -246,6 +187,2519 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Speed_test!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>yolov8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Speed_test!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Время обработки 5000 кадров (sec)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Speed_test!$B$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>257</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-16CC-4E6A-8083-A9CE0DE8C204}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Speed_test!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>dlib</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Speed_test!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Время обработки 5000 кадров (sec)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Speed_test!$C$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>346.81</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-16CC-4E6A-8083-A9CE0DE8C204}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Speed_test!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>mtcnn</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Speed_test!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Время обработки 5000 кадров (sec)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Speed_test!$D$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>492.95</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-16CC-4E6A-8083-A9CE0DE8C204}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Speed_test!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>insightface</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Speed_test!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Время обработки 5000 кадров (sec)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Speed_test!$E$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>572.96</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-16CC-4E6A-8083-A9CE0DE8C204}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Speed_test!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>retinaFace</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Speed_test!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Время обработки 5000 кадров (sec)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Speed_test!$F$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>541.95000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-16CC-4E6A-8083-A9CE0DE8C204}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Speed_test!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>mediapipe</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Speed_test!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Время обработки 5000 кадров (sec)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Speed_test!$G$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>35.979999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-16CC-4E6A-8083-A9CE0DE8C204}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Speed_test!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>haarcascade</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Speed_test!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Время обработки 5000 кадров (sec)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Speed_test!$H$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1443.86</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-16CC-4E6A-8083-A9CE0DE8C204}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Speed_test!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ssd</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Speed_test!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Время обработки 5000 кадров (sec)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Speed_test!$I$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>195.57</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-16CC-4E6A-8083-A9CE0DE8C204}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1462766111"/>
+        <c:axId val="1381033039"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1462766111"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1381033039"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1381033039"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1462766111"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Speed_test!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>yolov8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Speed_test!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Кол-во разпознанных лиц</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Speed_test!$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16804</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-993F-4285-8F2F-16603C89F478}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Speed_test!$C$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>dlib</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Speed_test!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Кол-во разпознанных лиц</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Speed_test!$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5315</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-993F-4285-8F2F-16603C89F478}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Speed_test!$D$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>mtcnn</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Speed_test!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Кол-во разпознанных лиц</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Speed_test!$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>8924</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-993F-4285-8F2F-16603C89F478}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Speed_test!$E$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>insightface</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Speed_test!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Кол-во разпознанных лиц</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Speed_test!$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>15507</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-993F-4285-8F2F-16603C89F478}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Speed_test!$F$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>retinaFace</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Speed_test!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Кол-во разпознанных лиц</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Speed_test!$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>12491</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-993F-4285-8F2F-16603C89F478}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Speed_test!$G$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>mediapipe</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Speed_test!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Кол-во разпознанных лиц</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Speed_test!$G$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-993F-4285-8F2F-16603C89F478}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Speed_test!$H$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>haarcascade</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Speed_test!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Кол-во разпознанных лиц</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Speed_test!$H$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>9116</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-993F-4285-8F2F-16603C89F478}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Speed_test!$I$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ssd</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Speed_test!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Кол-во разпознанных лиц</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Speed_test!$I$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4955</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-993F-4285-8F2F-16603C89F478}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1377734095"/>
+        <c:axId val="1376702495"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1377734095"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1376702495"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1376702495"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1377734095"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>23811</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C24F6F2C-6BFF-414E-81F3-CE6C486CCA7A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>23811</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2905125</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCD6839F-5DCC-4004-8284-D6078322EAFB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -511,23 +2965,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I3"/>
+      <selection sqref="A1:I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" customWidth="1"/>
+    <col min="1" max="1" width="32.42578125" customWidth="1"/>
+    <col min="2" max="2" width="46" customWidth="1"/>
+    <col min="3" max="3" width="43.28515625" customWidth="1"/>
+    <col min="4" max="4" width="47" customWidth="1"/>
+    <col min="5" max="5" width="56.85546875" customWidth="1"/>
+    <col min="6" max="6" width="44.28515625" customWidth="1"/>
+    <col min="7" max="7" width="49.5703125" customWidth="1"/>
+    <col min="8" max="8" width="33.28515625" customWidth="1"/>
     <col min="9" max="9" width="17.7109375" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -535,91 +2990,121 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>9</v>
-      </c>
-      <c r="I1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2">
+        <v>257</v>
+      </c>
+      <c r="C2">
+        <v>346.81</v>
+      </c>
+      <c r="D2">
+        <v>492.95</v>
+      </c>
+      <c r="E2">
+        <v>572.96</v>
+      </c>
+      <c r="F2">
+        <v>541.95000000000005</v>
+      </c>
+      <c r="G2">
+        <v>35.979999999999997</v>
+      </c>
+      <c r="H2">
+        <v>1443.86</v>
+      </c>
+      <c r="I2">
+        <v>195.57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>16805</v>
-      </c>
-      <c r="C3">
+      <c r="B6">
+        <v>16804</v>
+      </c>
+      <c r="C6">
         <v>5315</v>
       </c>
-      <c r="D3">
-        <v>8965</v>
-      </c>
-      <c r="E3">
+      <c r="D6">
+        <v>8924</v>
+      </c>
+      <c r="E6">
         <v>15507</v>
       </c>
-      <c r="F3">
-        <v>16274</v>
-      </c>
-      <c r="G3">
+      <c r="F6">
+        <v>12491</v>
+      </c>
+      <c r="G6">
         <v>4500</v>
       </c>
-      <c r="H3">
+      <c r="H6">
         <v>9116</v>
       </c>
-      <c r="I3">
-        <v>7245</v>
+      <c r="I6">
+        <v>4955</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -627,8 +3112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35D1ED4E-0317-4471-BF8A-FC0DB2AD54D7}">
   <dimension ref="A1:AP3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R16" sqref="R16"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection sqref="A1:AP3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -637,170 +3122,170 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="L1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="W1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
-      <c r="AA1" s="3"/>
-      <c r="AB1" s="3"/>
-      <c r="AC1" s="3"/>
-      <c r="AD1" s="3"/>
-      <c r="AE1" s="3"/>
+      <c r="A1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="L1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="W1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="5"/>
+      <c r="AA1" s="5"/>
+      <c r="AB1" s="5"/>
+      <c r="AC1" s="5"/>
+      <c r="AD1" s="5"/>
+      <c r="AE1" s="5"/>
       <c r="AF1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="AG1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AH1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="AI1" s="4"/>
-      <c r="AJ1" s="4"/>
-      <c r="AK1" s="4"/>
-      <c r="AL1" s="4"/>
-      <c r="AM1" s="4"/>
-      <c r="AN1" s="4"/>
-      <c r="AO1" s="4"/>
-      <c r="AP1" s="4"/>
+        <v>12</v>
+      </c>
+      <c r="AH1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="AI1" s="6"/>
+      <c r="AJ1" s="6"/>
+      <c r="AK1" s="6"/>
+      <c r="AL1" s="6"/>
+      <c r="AM1" s="6"/>
+      <c r="AN1" s="6"/>
+      <c r="AO1" s="6"/>
+      <c r="AP1" s="6"/>
     </row>
     <row r="2" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>7</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>8</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>9</v>
-      </c>
-      <c r="I2" t="s">
-        <v>10</v>
       </c>
       <c r="L2" t="s">
         <v>0</v>
       </c>
       <c r="M2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" t="s">
         <v>3</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>4</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>5</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>7</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>8</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>9</v>
-      </c>
-      <c r="T2" t="s">
-        <v>10</v>
       </c>
       <c r="W2" t="s">
         <v>0</v>
       </c>
       <c r="X2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y2" t="s">
         <v>3</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>4</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>5</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>6</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>7</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>8</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>9</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>10</v>
       </c>
       <c r="AH2" t="s">
         <v>0</v>
       </c>
       <c r="AI2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ2" t="s">
         <v>3</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AK2" t="s">
         <v>4</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AL2" t="s">
         <v>5</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AM2" t="s">
         <v>6</v>
       </c>
-      <c r="AM2" t="s">
+      <c r="AN2" t="s">
         <v>7</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AO2" t="s">
         <v>8</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AP2" t="s">
         <v>9</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>13619</v>
@@ -827,7 +3312,7 @@
         <v>5751</v>
       </c>
       <c r="L3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M3">
         <v>2954</v>
@@ -854,7 +3339,7 @@
         <v>1609</v>
       </c>
       <c r="W3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X3">
         <v>9809</v>
@@ -881,7 +3366,7 @@
         <v>2796</v>
       </c>
       <c r="AH3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI3">
         <v>12365</v>
@@ -924,7 +3409,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -942,97 +3427,68 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>9</v>
-      </c>
-      <c r="I1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>27</v>
+        <v>16</v>
+      </c>
+      <c r="B2" s="7">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="D2" s="8">
+        <v>0.85</v>
+      </c>
+      <c r="E2" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="F2" s="7">
+        <v>1</v>
+      </c>
+      <c r="G2" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="H2" s="8">
+        <v>0.15</v>
+      </c>
+      <c r="I2" s="8">
+        <v>0.25</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D6" s="5"/>
+      <c r="D6" s="1"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="5"/>
-      <c r="F8" s="5"/>
+      <c r="B8" s="1"/>
+      <c r="F8" s="1"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E12" s="6"/>
+      <c r="E12" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/metrics_of_tests/metrics.xlsx
+++ b/metrics_of_tests/metrics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\diplom\Graduation-project\metrics_of_tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0127159F-ECB2-4408-998E-DBA563F829A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33739E01-1C7D-475C-9D58-6F73F37A0A24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Speed_test" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="19">
   <si>
     <t>Детектор</t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t>Время обработки 5000 кадров (sec)</t>
+  </si>
+  <si>
+    <t>fps</t>
   </si>
 </sst>
 </file>
@@ -156,6 +159,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -168,10 +175,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -3112,8 +3115,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35D1ED4E-0317-4471-BF8A-FC0DB2AD54D7}">
   <dimension ref="A1:AP3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection sqref="A1:AP3"/>
+    <sheetView topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="AE10" sqref="AE10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3122,56 +3125,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="L1" s="4" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="L1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="W1" s="5" t="s">
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="W1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="X1" s="5"/>
-      <c r="Y1" s="5"/>
-      <c r="Z1" s="5"/>
-      <c r="AA1" s="5"/>
-      <c r="AB1" s="5"/>
-      <c r="AC1" s="5"/>
-      <c r="AD1" s="5"/>
-      <c r="AE1" s="5"/>
+      <c r="X1" s="7"/>
+      <c r="Y1" s="7"/>
+      <c r="Z1" s="7"/>
+      <c r="AA1" s="7"/>
+      <c r="AB1" s="7"/>
+      <c r="AC1" s="7"/>
+      <c r="AD1" s="7"/>
+      <c r="AE1" s="7"/>
       <c r="AF1" t="s">
         <v>11</v>
       </c>
       <c r="AG1" t="s">
         <v>12</v>
       </c>
-      <c r="AH1" s="6" t="s">
+      <c r="AH1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="AI1" s="6"/>
-      <c r="AJ1" s="6"/>
-      <c r="AK1" s="6"/>
-      <c r="AL1" s="6"/>
-      <c r="AM1" s="6"/>
-      <c r="AN1" s="6"/>
-      <c r="AO1" s="6"/>
-      <c r="AP1" s="6"/>
+      <c r="AI1" s="8"/>
+      <c r="AJ1" s="8"/>
+      <c r="AK1" s="8"/>
+      <c r="AL1" s="8"/>
+      <c r="AM1" s="8"/>
+      <c r="AN1" s="8"/>
+      <c r="AO1" s="8"/>
+      <c r="AP1" s="8"/>
     </row>
     <row r="2" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -3408,8 +3411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9F3EFF3-1AEE-4B9B-8567-F726B8F4D7B7}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3455,29 +3458,58 @@
       <c r="A2" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="3">
         <v>1</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="4">
         <v>0.25</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="4">
         <v>0.85</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="4">
         <v>0.25</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="3">
         <v>1</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="4">
         <v>0.25</v>
       </c>
-      <c r="H2" s="8">
+      <c r="H2" s="4">
         <v>0.15</v>
       </c>
-      <c r="I2" s="8">
+      <c r="I2" s="4">
         <v>0.25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3">
+        <v>18</v>
+      </c>
+      <c r="C3">
+        <v>21</v>
+      </c>
+      <c r="D3">
+        <v>20</v>
+      </c>
+      <c r="E3">
+        <v>15</v>
+      </c>
+      <c r="F3">
+        <v>16</v>
+      </c>
+      <c r="G3">
+        <v>35</v>
+      </c>
+      <c r="H3">
+        <v>10</v>
+      </c>
+      <c r="I3">
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">

--- a/metrics_of_tests/metrics.xlsx
+++ b/metrics_of_tests/metrics.xlsx
@@ -8,19 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\diplom\Graduation-project\metrics_of_tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33739E01-1C7D-475C-9D58-6F73F37A0A24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F44A1580-FA3A-46E4-8814-97C90DF6C468}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Speed_test" sheetId="1" r:id="rId1"/>
     <sheet name="Filters_test" sheetId="2" r:id="rId2"/>
     <sheet name="Нагрузка" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1542,6 +1548,1257 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Filters_test!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Кол-во разпознанных лиц</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Filters_test!$B$1:$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>yolov8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>dlib</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>mtcnn</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>insightface</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>retinaFace</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>mediapipe</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>haarcascade</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ssd</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Filters_test!$B$3:$I$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>13619</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3571</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5483</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11068</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13218</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4856</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8179</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5751</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4BB5-4126-BBF2-0D9C010FA7A9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="165442400"/>
+        <c:axId val="73424144"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="165442400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="73424144"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="73424144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="165442400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Filters_test!$L$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Кол-во разпознанных лиц</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Filters_test!$M$1:$T$2</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>yolov8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>dlib</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>mtcnn</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>insightface</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>retinaFace</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>mediapipe</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>haarcascade</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ssd</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Filters_test!$M$3:$T$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2954</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>960</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2597</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5696</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4079</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>414</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3680</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1609</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A59F-407F-9AF2-8E083C23D9E0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="83769408"/>
+        <c:axId val="171156640"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="83769408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="171156640"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="171156640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="83769408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Filters_test!$W$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Кол-во разпознанных лиц</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Filters_test!$X$1:$AE$2</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>yolov8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>dlib</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>mtcnn</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>insightface</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>retinaFace</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>mediapipe</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>haarcascade</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ssd</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Filters_test!$X$3:$AE$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>9809</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2491</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7781</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10254</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3555</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3501</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2796</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D89D-416E-9149-5B12789A94C1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="290545088"/>
+        <c:axId val="286376992"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="290545088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="286376992"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="286376992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="290545088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Filters_test!$AH$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Кол-во разпознанных лиц</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Filters_test!$AI$1:$AP$2</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>yolov8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>dlib</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>mtcnn</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>insightface</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>retinaFace</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>mediapipe</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>haarcascade</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ssd</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Filters_test!$AI$3:$AP$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>12365</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3717</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4295</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11145</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12248</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2453</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6074</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-018F-4985-80F3-A5B1FC4B9554}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="291436656"/>
+        <c:axId val="292095040"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="291436656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="292095040"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="292095040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="291436656"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1622,6 +2879,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -2126,6 +3543,2018 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2697,6 +6126,155 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1BF4948-9100-4D26-BF12-0B63AA228151}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA3C8F4D-94B3-4C60-A763-4C92478E8852}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Диаграмма 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9608243-1AD2-4F8F-8A22-60D395028A6B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Диаграмма 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38135F85-06FD-43F2-BCCB-2925AE20AEEE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2971,7 +6549,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I6"/>
+      <selection activeCell="B33" sqref="B32:B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3115,8 +6693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35D1ED4E-0317-4471-BF8A-FC0DB2AD54D7}">
   <dimension ref="A1:AP3"/>
   <sheetViews>
-    <sheetView topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="AE10" sqref="AE10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V24" sqref="V24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3393,7 +6971,8 @@
         <v>6074</v>
       </c>
       <c r="AP3">
-        <v>4531</v>
+        <f ca="1">+AD11+A1:AP3</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3404,6 +6983,7 @@
     <mergeCell ref="AH1:AP1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3411,7 +6991,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9F3EFF3-1AEE-4B9B-8567-F726B8F4D7B7}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>

--- a/metrics_of_tests/metrics.xlsx
+++ b/metrics_of_tests/metrics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\diplom\Graduation-project\metrics_of_tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F44A1580-FA3A-46E4-8814-97C90DF6C468}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05C14C17-109B-4B6B-B5D8-F2F75E70A4D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Speed_test" sheetId="1" r:id="rId1"/>
@@ -2623,7 +2623,7 @@
                   <c:v>6074</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>3124</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6693,8 +6693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35D1ED4E-0317-4471-BF8A-FC0DB2AD54D7}">
   <dimension ref="A1:AP3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V24" sqref="V24"/>
+    <sheetView topLeftCell="Q1" workbookViewId="0">
+      <selection sqref="A1:AP3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6971,8 +6971,7 @@
         <v>6074</v>
       </c>
       <c r="AP3">
-        <f ca="1">+AD11+A1:AP3</f>
-        <v>0</v>
+        <v>3124</v>
       </c>
     </row>
   </sheetData>
@@ -6991,8 +6990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9F3EFF3-1AEE-4B9B-8567-F726B8F4D7B7}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/metrics_of_tests/metrics.xlsx
+++ b/metrics_of_tests/metrics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\diplom\Graduation-project\metrics_of_tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05C14C17-109B-4B6B-B5D8-F2F75E70A4D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB7F8D4F-1B15-48C4-B5A6-35BA739E824E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Speed_test" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="19">
   <si>
     <t>Детектор</t>
   </si>
@@ -213,6 +213,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Анализ</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> точности детекторов</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -254,11 +284,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Speed_test!$B$1</c:f>
+              <c:f>Speed_test!$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>yolov8</c:v>
+                  <c:v>Кол-во разпознанных лиц</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -273,413 +303,347 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:pattFill prst="pct80">
+                <a:fgClr>
+                  <a:srgbClr val="0070C0"/>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="bg1"/>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-487B-4C76-8179-46234364ECC7}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:pattFill prst="dkDnDiag">
+                <a:fgClr>
+                  <a:srgbClr val="002060"/>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="bg1"/>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-487B-4C76-8179-46234364ECC7}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:pattFill prst="wdUpDiag">
+                <a:fgClr>
+                  <a:srgbClr val="00B050"/>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="bg1"/>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-487B-4C76-8179-46234364ECC7}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:pattFill prst="dkVert">
+                <a:fgClr>
+                  <a:schemeClr val="accent2"/>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="bg1"/>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-487B-4C76-8179-46234364ECC7}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:pattFill prst="lgCheck">
+                <a:fgClr>
+                  <a:srgbClr val="FF0000"/>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="bg1"/>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000006-487B-4C76-8179-46234364ECC7}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:pattFill prst="dkHorz">
+                <a:fgClr>
+                  <a:srgbClr val="7030A0"/>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="bg1"/>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="7030A0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-487B-4C76-8179-46234364ECC7}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:pattFill prst="solidDmnd">
+                <a:fgClr>
+                  <a:srgbClr val="C00000"/>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="bg1"/>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="C00000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000008-487B-4C76-8179-46234364ECC7}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:pattFill prst="zigZag">
+                <a:fgClr>
+                  <a:srgbClr val="92D050"/>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="bg1"/>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="92D050"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-487B-4C76-8179-46234364ECC7}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Speed_test!$A$2</c:f>
+              <c:f>Speed_test!$B$5:$I$5</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>Время обработки 5000 кадров (sec)</c:v>
+                  <c:v>yolov8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>dlib</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>mtcnn</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>insightface</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>retinaFace</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>mediapipe</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>haarcascade</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ssd</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Speed_test!$B$2</c:f>
+              <c:f>Speed_test!$B$6:$I$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>257</c:v>
+                  <c:v>16804</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5315</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8924</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15507</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12491</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9116</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4955</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-16CC-4E6A-8083-A9CE0DE8C204}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Speed_test!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>dlib</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Speed_test!$A$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Время обработки 5000 кадров (sec)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Speed_test!$C$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>346.81</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-16CC-4E6A-8083-A9CE0DE8C204}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Speed_test!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>mtcnn</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Speed_test!$A$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Время обработки 5000 кадров (sec)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Speed_test!$D$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>492.95</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-16CC-4E6A-8083-A9CE0DE8C204}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Speed_test!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>insightface</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Speed_test!$A$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Время обработки 5000 кадров (sec)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Speed_test!$E$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>572.96</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-16CC-4E6A-8083-A9CE0DE8C204}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Speed_test!$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>retinaFace</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Speed_test!$A$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Время обработки 5000 кадров (sec)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Speed_test!$F$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>541.95000000000005</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-16CC-4E6A-8083-A9CE0DE8C204}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Speed_test!$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>mediapipe</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Speed_test!$A$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Время обработки 5000 кадров (sec)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Speed_test!$G$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>35.979999999999997</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-16CC-4E6A-8083-A9CE0DE8C204}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Speed_test!$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>haarcascade</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Speed_test!$A$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Время обработки 5000 кадров (sec)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Speed_test!$H$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1443.86</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-16CC-4E6A-8083-A9CE0DE8C204}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Speed_test!$I$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ssd</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Speed_test!$A$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Время обработки 5000 кадров (sec)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Speed_test!$I$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>195.57</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-16CC-4E6A-8083-A9CE0DE8C204}"/>
+              <c16:uniqueId val="{00000000-487B-4C76-8179-46234364ECC7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -687,16 +651,84 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1462766111"/>
-        <c:axId val="1381033039"/>
+        <c:axId val="1093011952"/>
+        <c:axId val="1030073104"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1462766111"/>
+        <c:axId val="1093011952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>НАИМЕНОВАНИЕ</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" baseline="0"/>
+                  <a:t> ДЕТЕКТОРА</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.43280416919895198"/>
+              <c:y val="0.93198749415810311"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -734,7 +766,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1381033039"/>
+        <c:crossAx val="1030073104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -742,7 +774,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1381033039"/>
+        <c:axId val="1030073104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -762,6 +794,69 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>КОЛИЧЕСТВО РАСПОЗНАННЫХ ЛИЦ</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="4.5236075770426912E-3"/>
+              <c:y val="0.20756384816756845"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -793,7 +888,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1462766111"/>
+        <c:crossAx val="1093011952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -805,37 +900,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -888,513 +952,13 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Speed_test!$B$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>yolov8</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Speed_test!$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Кол-во разпознанных лиц</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Speed_test!$B$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>16804</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-993F-4285-8F2F-16603C89F478}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Speed_test!$C$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>dlib</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Speed_test!$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Кол-во разпознанных лиц</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Speed_test!$C$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>5315</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-993F-4285-8F2F-16603C89F478}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Speed_test!$D$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>mtcnn</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Speed_test!$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Кол-во разпознанных лиц</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Speed_test!$D$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>8924</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-993F-4285-8F2F-16603C89F478}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Speed_test!$E$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>insightface</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Speed_test!$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Кол-во разпознанных лиц</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Speed_test!$E$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>15507</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-993F-4285-8F2F-16603C89F478}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Speed_test!$F$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>retinaFace</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Speed_test!$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Кол-во разпознанных лиц</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Speed_test!$F$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>12491</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-993F-4285-8F2F-16603C89F478}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Speed_test!$G$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>mediapipe</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Speed_test!$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Кол-во разпознанных лиц</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Speed_test!$G$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>4500</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-993F-4285-8F2F-16603C89F478}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Speed_test!$H$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>haarcascade</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Speed_test!$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Кол-во разпознанных лиц</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Speed_test!$H$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>9116</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-993F-4285-8F2F-16603C89F478}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Speed_test!$I$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ssd</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Speed_test!$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Кол-во разпознанных лиц</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Speed_test!$I$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>4955</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-993F-4285-8F2F-16603C89F478}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="1377734095"/>
-        <c:axId val="1376702495"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1377734095"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1406,163 +970,22 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Результаты</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> для фильтра </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>Blur</a:t>
+            </a:r>
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
-        </c:txPr>
-        <c:crossAx val="1376702495"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1376702495"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1377734095"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1623,6 +1046,272 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:pattFill prst="pct75">
+                <a:fgClr>
+                  <a:srgbClr val="0070C0"/>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="bg1"/>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-6AC6-43A5-A968-6513065228BB}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:pattFill prst="dkDnDiag">
+                <a:fgClr>
+                  <a:srgbClr val="002060"/>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="bg1"/>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-6AC6-43A5-A968-6513065228BB}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:pattFill prst="wdUpDiag">
+                <a:fgClr>
+                  <a:srgbClr val="00B050"/>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="bg1"/>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-6AC6-43A5-A968-6513065228BB}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:pattFill prst="dkVert">
+                <a:fgClr>
+                  <a:srgbClr val="FFC000"/>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="bg1"/>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FFC000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-6AC6-43A5-A968-6513065228BB}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:pattFill prst="lgCheck">
+                <a:fgClr>
+                  <a:srgbClr val="FF0000"/>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="bg1"/>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-6AC6-43A5-A968-6513065228BB}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:pattFill prst="dkHorz">
+                <a:fgClr>
+                  <a:srgbClr val="7030A0"/>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="bg1"/>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="7030A0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000006-6AC6-43A5-A968-6513065228BB}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:pattFill prst="solidDmnd">
+                <a:fgClr>
+                  <a:srgbClr val="C00000"/>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="bg1"/>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="C00000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-6AC6-43A5-A968-6513065228BB}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:pattFill prst="zigZag">
+                <a:fgClr>
+                  <a:srgbClr val="92D050"/>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="bg1"/>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="92D050"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000008-6AC6-43A5-A968-6513065228BB}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Filters_test!$B$1:$I$2</c:f>
@@ -1695,8 +1384,9 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -1714,6 +1404,74 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>НАИМЕНОВАНИЯ</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" baseline="0"/>
+                  <a:t> ДЕТЕКТОРОВ</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.37058455669632562"/>
+              <c:y val="0.8996162346585298"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1779,6 +1537,69 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>КОЛИЧЕСТВО РАСПОЗНАННЫХ ЛИЦ</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="8.3327213636901019E-3"/>
+              <c:y val="0.1441402637505029"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1866,7 +1687,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
@@ -1881,6 +1702,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Результаты для фильтра </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Noise</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1941,6 +1792,217 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:pattFill prst="pct75">
+                <a:fgClr>
+                  <a:srgbClr val="0070C0"/>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="bg1"/>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000014-7D13-40B0-984F-B357B12A8E0C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:pattFill prst="dkDnDiag">
+                <a:fgClr>
+                  <a:srgbClr val="002060"/>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="bg1"/>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000015-7D13-40B0-984F-B357B12A8E0C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:pattFill prst="wdUpDiag">
+                <a:fgClr>
+                  <a:srgbClr val="00B050"/>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="bg1"/>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000016-7D13-40B0-984F-B357B12A8E0C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:pattFill prst="dkVert">
+                <a:fgClr>
+                  <a:srgbClr val="FFC000"/>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="bg1"/>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FFC000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000017-7D13-40B0-984F-B357B12A8E0C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:pattFill prst="lgCheck">
+                <a:fgClr>
+                  <a:srgbClr val="FF0000"/>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="bg1"/>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000018-7D13-40B0-984F-B357B12A8E0C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:pattFill prst="dkHorz">
+                <a:fgClr>
+                  <a:srgbClr val="7030A0"/>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="bg1"/>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="7030A0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000019-7D13-40B0-984F-B357B12A8E0C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:pattFill prst="solidDmnd">
+                <a:fgClr>
+                  <a:srgbClr val="C00000"/>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="bg1"/>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="C00000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001A-7D13-40B0-984F-B357B12A8E0C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:pattFill prst="zigZag">
+                <a:fgClr>
+                  <a:srgbClr val="92D050"/>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="bg1"/>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="92D050"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001B-7D13-40B0-984F-B357B12A8E0C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Filters_test!$M$1:$T$2</c:f>
@@ -2013,8 +2075,9 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -2032,6 +2095,74 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>НАИМЕНОВАНИЯ</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" baseline="0"/>
+                  <a:t> ДЕТЕКТОРОВ</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.39959243402011208"/>
+              <c:y val="0.90733422755630677"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2097,6 +2228,69 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>КОЛИЧЕСТВО РАСПОЗНАННЫХ ЛИЦ</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.2975438909911338E-2"/>
+              <c:y val="0.13035293329013373"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2177,7 +2371,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
@@ -2192,6 +2386,40 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Результаты</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> для фильтра </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>Rotate</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2243,15 +2471,286 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
+            <a:pattFill prst="pct75">
+              <a:fgClr>
+                <a:srgbClr val="0070C0"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:pattFill prst="pct75">
+                <a:fgClr>
+                  <a:srgbClr val="0070C0"/>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="bg1"/>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-AB4D-4F29-8446-9C9780FC9841}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:pattFill prst="dkDnDiag">
+                <a:fgClr>
+                  <a:srgbClr val="002060"/>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="bg1"/>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-AB4D-4F29-8446-9C9780FC9841}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:pattFill prst="wdUpDiag">
+                <a:fgClr>
+                  <a:srgbClr val="00B050"/>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="bg1"/>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-AB4D-4F29-8446-9C9780FC9841}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:pattFill prst="dkVert">
+                <a:fgClr>
+                  <a:srgbClr val="FFC000"/>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="bg1"/>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FFC000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-AB4D-4F29-8446-9C9780FC9841}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:pattFill prst="lgCheck">
+                <a:fgClr>
+                  <a:srgbClr val="FF0000"/>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="bg1"/>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-AB4D-4F29-8446-9C9780FC9841}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:pattFill prst="dkHorz">
+                <a:fgClr>
+                  <a:srgbClr val="7030A0"/>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="bg1"/>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="7030A0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000006-AB4D-4F29-8446-9C9780FC9841}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:pattFill prst="solidDmnd">
+                <a:fgClr>
+                  <a:srgbClr val="C00000"/>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="bg1"/>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="C00000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-AB4D-4F29-8446-9C9780FC9841}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:pattFill prst="zigZag">
+                <a:fgClr>
+                  <a:srgbClr val="92D050"/>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="bg1"/>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="92D050"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000008-AB4D-4F29-8446-9C9780FC9841}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Filters_test!$X$1:$AE$2</c:f>
@@ -2324,8 +2823,9 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -2343,6 +2843,66 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>НАИМЕНОВАНИЯ</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" baseline="0"/>
+                  <a:t> ЛИЦ</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2408,6 +2968,74 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>КОЛИЧЕСТВО РАСПОЗНАННЫХ</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" baseline="0"/>
+                  <a:t> ЛИЦ</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.462199430844217E-2"/>
+              <c:y val="0.13433802076860932"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2488,7 +3116,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
@@ -2503,6 +3131,44 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Результаты</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> для фильтра </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>Overexposure</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2563,6 +3229,272 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:pattFill prst="pct75">
+                <a:fgClr>
+                  <a:srgbClr val="0070C0"/>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="bg1"/>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-2E7C-4C52-AB7D-6A69262019AA}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:pattFill prst="dkDnDiag">
+                <a:fgClr>
+                  <a:srgbClr val="002060"/>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="bg1"/>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-2E7C-4C52-AB7D-6A69262019AA}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:pattFill prst="wdUpDiag">
+                <a:fgClr>
+                  <a:srgbClr val="00B050"/>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="bg1"/>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-2E7C-4C52-AB7D-6A69262019AA}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:pattFill prst="dkVert">
+                <a:fgClr>
+                  <a:srgbClr val="FFC000"/>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="bg1"/>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FFC000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-2E7C-4C52-AB7D-6A69262019AA}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:pattFill prst="lgCheck">
+                <a:fgClr>
+                  <a:srgbClr val="FF0000"/>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="bg1"/>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-2E7C-4C52-AB7D-6A69262019AA}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:pattFill prst="dkHorz">
+                <a:fgClr>
+                  <a:srgbClr val="7030A0"/>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="bg1"/>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="7030A0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000006-2E7C-4C52-AB7D-6A69262019AA}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:pattFill prst="solidDmnd">
+                <a:fgClr>
+                  <a:srgbClr val="C00000"/>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="bg1"/>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="C00000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-2E7C-4C52-AB7D-6A69262019AA}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:pattFill prst="zigZag">
+                <a:fgClr>
+                  <a:srgbClr val="92D050"/>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="bg1"/>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="92D050"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000008-2E7C-4C52-AB7D-6A69262019AA}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Filters_test!$AI$1:$AP$2</c:f>
@@ -2635,8 +3567,9 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -2654,6 +3587,74 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>НАИМЕНОВАНИЯ</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" baseline="0"/>
+                  <a:t> ЛИЦ</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.42748102147123351"/>
+              <c:y val="0.89835155750899087"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2719,6 +3720,74 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>КОЛИЧЕСТВО</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" baseline="0"/>
+                  <a:t> РАСПОЗНАННЫХ ЛИЦ</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.253012079891524E-2"/>
+              <c:y val="0.13896060694639356"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2751,6 +3820,1503 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="291436656"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>средняя загрузка CPU</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Нагрузка!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cpu</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:pattFill prst="pct75">
+                <a:fgClr>
+                  <a:srgbClr val="0070C0"/>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="bg1"/>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-8C80-4CC2-9989-B4DC71883907}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:pattFill prst="dkDnDiag">
+                <a:fgClr>
+                  <a:srgbClr val="002060"/>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="bg1"/>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-8C80-4CC2-9989-B4DC71883907}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:pattFill prst="wdUpDiag">
+                <a:fgClr>
+                  <a:srgbClr val="00B050"/>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="bg1"/>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-8C80-4CC2-9989-B4DC71883907}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:pattFill prst="dkVert">
+                <a:fgClr>
+                  <a:srgbClr val="FFC000"/>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="bg1"/>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FFC000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-8C80-4CC2-9989-B4DC71883907}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:pattFill prst="lgCheck">
+                <a:fgClr>
+                  <a:srgbClr val="FF0000"/>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="bg1"/>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000006-8C80-4CC2-9989-B4DC71883907}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:pattFill prst="dkHorz">
+                <a:fgClr>
+                  <a:srgbClr val="7030A0"/>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="bg1"/>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="7030A0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-8C80-4CC2-9989-B4DC71883907}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:pattFill prst="solidDmnd">
+                <a:fgClr>
+                  <a:srgbClr val="C00000"/>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="bg1"/>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="C00000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000008-8C80-4CC2-9989-B4DC71883907}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:pattFill prst="zigZag">
+                <a:fgClr>
+                  <a:srgbClr val="92D050"/>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="bg1"/>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="92D050"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-8C80-4CC2-9989-B4DC71883907}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Нагрузка!$B$1:$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>yolov8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>dlib</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>mtcnn</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>insightface</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>retinaFace</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>mediapipe</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>haarcascade</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ssd</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Нагрузка!$B$2:$I$2</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8C80-4CC2-9989-B4DC71883907}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="977356112"/>
+        <c:axId val="1030832816"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="977356112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>НАИМЕНОВАНИЯ ДЕТЕКТОРОВ</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.3647325750947798"/>
+              <c:y val="0.90877593333985418"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1030832816"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1030832816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>ЗАГРУЗКА</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t>CPU(%)</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.8583042973286876E-2"/>
+              <c:y val="0.25284621300659227"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="977356112"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>среднее </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>FPS</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Нагрузка!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>fps</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:pattFill prst="pct80">
+                <a:fgClr>
+                  <a:srgbClr val="0070C0"/>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="bg1"/>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-A976-419C-8FB2-CC154DD10B32}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:pattFill prst="dkDnDiag">
+                <a:fgClr>
+                  <a:srgbClr val="002060"/>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="bg1"/>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-A976-419C-8FB2-CC154DD10B32}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:pattFill prst="wdUpDiag">
+                <a:fgClr>
+                  <a:srgbClr val="00B050"/>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="bg1"/>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-A976-419C-8FB2-CC154DD10B32}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:pattFill prst="dkVert">
+                <a:fgClr>
+                  <a:srgbClr val="FFC000"/>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="bg1"/>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FFC000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-A976-419C-8FB2-CC154DD10B32}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:pattFill prst="lgCheck">
+                <a:fgClr>
+                  <a:srgbClr val="FF0000"/>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="bg1"/>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000006-A976-419C-8FB2-CC154DD10B32}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:pattFill prst="dkHorz">
+                <a:fgClr>
+                  <a:srgbClr val="7030A0"/>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="bg1"/>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="7030A0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-A976-419C-8FB2-CC154DD10B32}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:pattFill prst="solidDmnd">
+                <a:fgClr>
+                  <a:srgbClr val="C00000"/>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="bg1"/>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="C00000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000008-A976-419C-8FB2-CC154DD10B32}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:pattFill prst="zigZag">
+                <a:fgClr>
+                  <a:srgbClr val="92D050"/>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="bg1"/>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="92D050"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-A976-419C-8FB2-CC154DD10B32}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Нагрузка!$B$5:$I$5</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>yolov8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>dlib</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>mtcnn</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>insightface</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>retinaFace</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>mediapipe</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>haarcascade</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ssd</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Нагрузка!$B$6:$I$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A976-419C-8FB2-CC154DD10B32}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="973378288"/>
+        <c:axId val="770096688"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="973378288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>НАИМЕНОВАНИЯ</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" baseline="0"/>
+                  <a:t> ДЕТЕКТОРОВ</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.36381933127924221"/>
+              <c:y val="0.90974858373255896"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="770096688"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="770096688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>СРЕДНЕЕ</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" baseline="0"/>
+                  <a:t> ЗНАЧЕНИЕ </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t>FPS</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.391304347826087E-2"/>
+              <c:y val="0.2393000454063765"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="973378288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3039,6 +5605,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -5555,6 +8161,509 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6063,21 +9172,21 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>23811</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>33336</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>3114675</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Диаграмма 1">
+        <xdr:cNvPr id="4" name="Диаграмма 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C24F6F2C-6BFF-414E-81F3-CE6C486CCA7A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{723476FC-A817-496C-9A71-DB0395E61CCD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6095,42 +9204,6 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>23811</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>2905125</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Диаграмма 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCD6839F-5DCC-4004-8284-D6078322EAFB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6141,13 +9214,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:rowOff>14288</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>600074</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6174,16 +9247,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:rowOff>14287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6211,15 +9284,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
+      <xdr:colOff>609599</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
+      <xdr:rowOff>4761</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6246,16 +9319,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
+      <xdr:rowOff>14287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6275,6 +9348,83 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>42861</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD2ACCF9-10A4-4EC1-8C5B-74A32FD2B798}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>428624</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>33336</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBC2FD03-AF89-4D8C-A12A-CD6C315E15C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6548,8 +9698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B33" sqref="B32:B33"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6693,8 +9843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35D1ED4E-0317-4471-BF8A-FC0DB2AD54D7}">
   <dimension ref="A1:AP3"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0">
-      <selection sqref="A1:AP3"/>
+    <sheetView tabSelected="1" topLeftCell="R1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AH1" sqref="AH1:AP3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6990,8 +10140,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9F3EFF3-1AEE-4B9B-8567-F726B8F4D7B7}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7046,8 +10196,8 @@
       <c r="D2" s="4">
         <v>0.85</v>
       </c>
-      <c r="E2" s="4">
-        <v>0.25</v>
+      <c r="E2" s="3">
+        <v>1</v>
       </c>
       <c r="F2" s="3">
         <v>1</v>
@@ -7062,37 +10212,63 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3">
-        <v>18</v>
-      </c>
-      <c r="C3">
-        <v>21</v>
-      </c>
-      <c r="D3">
-        <v>20</v>
-      </c>
-      <c r="E3">
-        <v>15</v>
-      </c>
-      <c r="F3">
-        <v>16</v>
-      </c>
-      <c r="G3">
-        <v>35</v>
-      </c>
-      <c r="H3">
-        <v>10</v>
-      </c>
-      <c r="I3">
-        <v>18</v>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D6" s="1"/>
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6">
+        <v>18</v>
+      </c>
+      <c r="C6">
+        <v>21</v>
+      </c>
+      <c r="D6">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>15</v>
+      </c>
+      <c r="F6">
+        <v>16</v>
+      </c>
+      <c r="G6">
+        <v>35</v>
+      </c>
+      <c r="H6">
+        <v>10</v>
+      </c>
+      <c r="I6">
+        <v>18</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
@@ -7103,5 +10279,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>